--- a/calendario_horario_actividadespreselectivo.xlsx
+++ b/calendario_horario_actividadespreselectivo.xlsx
@@ -130,10 +130,6 @@
 (---)</t>
   </si>
   <si>
-    <t>Tema 11: Utilizar y entender busqueda en profundidad 
-(---)</t>
-  </si>
-  <si>
     <t>Tema 13: Ordenación parte 1
 (Angel Sanchez)</t>
   </si>
@@ -163,6 +159,10 @@
   <si>
     <t>Tema 12: Utilizar y entender busqueda binaria 
 (JSoto)</t>
+  </si>
+  <si>
+    <t>Tema 11: Utilizar y entender busqueda en profundidad 
+(FelixG)</t>
   </si>
 </sst>
 </file>
@@ -232,19 +232,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,7 +563,7 @@
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,26 +579,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -628,36 +628,36 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>35</v>
+      <c r="H5" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -677,7 +677,7 @@
       <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
       <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -717,28 +717,28 @@
       <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>33</v>
+      <c r="G10" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -746,13 +746,13 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -784,23 +784,23 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>38</v>
+      <c r="F13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -808,14 +808,14 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -837,17 +837,17 @@
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -859,15 +859,15 @@
       <c r="G16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="3" t="s">
         <v>25</v>
       </c>
@@ -877,7 +877,7 @@
       <c r="G17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -924,6 +924,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C13:C14"/>
@@ -940,9 +943,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/calendario_horario_actividadespreselectivo.xlsx
+++ b/calendario_horario_actividadespreselectivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose\Documents\GitHub\MaterialBasico---OVI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\GitHub\MaterialBasico---OVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -126,10 +126,6 @@
 ( --- )</t>
   </si>
   <si>
-    <t>Tema 10: Utilizar y entender busqueda en amplitud 
-(---)</t>
-  </si>
-  <si>
     <t>Tema 13: Ordenación parte 1
 (Angel Sanchez)</t>
   </si>
@@ -163,6 +159,10 @@
   <si>
     <t>Tema 11: Utilizar y entender busqueda en profundidad 
 (FelixG)</t>
+  </si>
+  <si>
+    <t>Tema 10: Utilizar y entender busqueda en amplitud 
+(JulianRdz)</t>
   </si>
 </sst>
 </file>
@@ -232,15 +232,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -563,10 +563,10 @@
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G14"/>
+      <selection activeCell="F10" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
@@ -579,26 +579,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -628,36 +628,36 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>34</v>
+      <c r="H5" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -677,7 +677,7 @@
       <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
       <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -717,28 +717,28 @@
       <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -746,13 +746,13 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -784,23 +784,23 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>37</v>
+      <c r="F13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -808,14 +808,14 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -837,17 +837,17 @@
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -859,15 +859,15 @@
       <c r="G16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="3" t="s">
         <v>25</v>
       </c>
@@ -877,7 +877,7 @@
       <c r="G17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -924,12 +924,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B1:I2"/>
     <mergeCell ref="D5:D6"/>
@@ -943,6 +937,12 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/calendario_horario_actividadespreselectivo.xlsx
+++ b/calendario_horario_actividadespreselectivo.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\GitHub\MaterialBasico---OVI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{BD529254-10AC-45C6-A30A-877AACDA34C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,10 +84,6 @@
     <t>Tema 1: Uso de arreglos y matrices (Juvencio Fuentes)</t>
   </si>
   <si>
-    <t>Tema 2: Introducción a la estructuras de datos y la STL
-( -- )</t>
-  </si>
-  <si>
     <t>Tarea</t>
   </si>
   <si>
@@ -163,12 +154,16 @@
   <si>
     <t>Tema 10: Utilizar y entender busqueda en amplitud 
 (JulianRdz)</t>
+  </si>
+  <si>
+    <t>Tema 2: Introducción a la estructuras de datos y la STL
+( Mariola_Cam_Lie )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,16 +227,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,18 +547,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCD2A34-7E4F-4842-80F1-EC286C886D8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,26 +574,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -628,36 +623,36 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>33</v>
+      <c r="H5" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -677,7 +672,7 @@
       <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -686,18 +681,18 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -717,28 +712,28 @@
       <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>31</v>
+      <c r="C10" s="8"/>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -746,13 +741,13 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -784,23 +779,23 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -808,14 +803,14 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -837,47 +832,47 @@
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>26</v>
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -907,16 +902,16 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -924,6 +919,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B1:I2"/>
     <mergeCell ref="D5:D6"/>
@@ -940,9 +938,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
